--- a/Results/table2 prevalence of stunting, wasting and anemia.xlsx
+++ b/Results/table2 prevalence of stunting, wasting and anemia.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t xml:space="preserve">Characteristic
 </t>
@@ -21,6 +21,9 @@
     <t xml:space="preserve">Stunted child under 5 years</t>
   </si>
   <si>
+    <t xml:space="preserve">    Unknown</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wasted child under 5 years</t>
   </si>
   <si>
@@ -30,230 +33,382 @@
     <t xml:space="preserve">combined_indicator</t>
   </si>
   <si>
+    <t xml:space="preserve">    NANA0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    NANA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    NANANA</t>
+  </si>
+  <si>
     <t xml:space="preserve">n (%)</t>
   </si>
   <si>
     <t xml:space="preserve">CI = Confidence Interval</t>
   </si>
   <si>
-    <t xml:space="preserve">2011
-N = 2,257
+    <t xml:space="preserve">Mild
+N = 1,943
 </t>
   </si>
   <si>
-    <t xml:space="preserve">962 (42.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">244 (10.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,008 (44.6%)</t>
+    <t xml:space="preserve">731 (30.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188 (30.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">935 (29.6%)</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">672 (29.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">474 (21.0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71 (3.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78 (3.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">467 (20.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">399 (17.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39 (1.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56 (2.5%)</t>
+    <t xml:space="preserve">568 (25.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">503 (29.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 (30.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67 (31.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">338 (31.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">322 (30.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 (29.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 (29.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (21.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 (0.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (15.5%)</t>
   </si>
   <si>
     <t xml:space="preserve">95% CI
 </t>
   </si>
   <si>
-    <t xml:space="preserve">39.5%, 45.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24%, 12.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4%, 47.9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1%, 32.7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7%, 23.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30%, 4.27%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55%, 4.62%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5%, 23.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6%, 20.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22%, 2.49%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81%, 3.43%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016
-N = 2,155
+    <t xml:space="preserve">35.6%, 40.7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42%, 11.3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5%, 51.3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9%, 31.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5%, 28.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78%, 3.50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64%, 4.50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4%, 19.5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8%, 18.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97%, 2.18%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57%, 3.20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35%, 1.71%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;0.01%, &lt;0.01%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27%, 1.07%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderate
+N = 934
 </t>
   </si>
   <si>
-    <t xml:space="preserve">820 (38.0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">193 (9.0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,136 (52.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">630 (29.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">584 (27.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 (1.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87 (4.0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">328 (15.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">420 (19.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 (1.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46 (2.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4%, 40.7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53%, 10.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9%, 55.5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8%, 31.7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9%, 29.4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10%, 2.39%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13%, 5.15%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4%, 17.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3%, 21.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.79%, 1.86%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52%, 2.93%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022
-N = 2,335
+    <t xml:space="preserve">380 (16.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84 (13.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">440 (13.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">271 (12.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211 (12.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 (16.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 (12.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159 (14.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189 (17.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (20.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (8.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (20.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (17.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (4.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3%, 46.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86%, 12.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2%, 51.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3%, 33.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4%, 26.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81%, 4.38%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67%, 4.63%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9%, 20.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1%, 23.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19%, 3.77%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.65%, 2.44%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.54%, 4.50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06%, 0.89%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07%, 1.27%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No
+N = 3,131
 </t>
   </si>
   <si>
-    <t xml:space="preserve">605 (25.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182 (7.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,013 (43.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">953 (40.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">671 (28.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56 (2.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 (2.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">282 (12.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">247 (10.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 (1.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44 (1.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6%, 28.4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48%, 9.35%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8%, 46.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3%, 43.4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6%, 31.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72%, 3.34%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54%, 2.99%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5%, 13.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18%, 12.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89%, 2.07%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28%, 2.76%</t>
+    <t xml:space="preserve">877 (36.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">262 (42.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,363 (43.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,193 (53.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">816 (47.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76 (47.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96 (44.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 (37.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">387 (36.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 (32.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59 (40.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 (39.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (36.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 (59.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4%, 31.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38%, 9.93%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8%, 46.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9%, 40.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2%, 28.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77%, 3.33%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42%, 3.89%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4%, 14.3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8%, 14.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.66%, 1.51%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36%, 2.57%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.56%, 1.42%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04%, 0.53%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.67%, 2.47%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Severe
+N = 879
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">395 (16.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86 (13.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">426 (13.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">218 (9.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">197 (11.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (6.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 (11.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178 (16.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166 (15.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 (18.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 (21.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (18.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (46.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (20.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2%, 51.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92%, 12.9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7%, 53.9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2%, 28.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7%, 26.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.65%, 2.34%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77%, 4.56%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1%, 23.9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0%, 22.3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26%, 3.25%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49%, 5.29%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.45%, 4.87%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23%, 1.87%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86%, 2.96%</t>
   </si>
 </sst>
 </file>
@@ -379,10 +534,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -703,6 +858,8 @@
     <col min="5" max="5" width="10.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="10.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="10.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="10.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="NA" customHeight="1">
@@ -710,22 +867,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" ht="NA" customHeight="1">
@@ -733,327 +896,585 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>67</v>
+        <v>86</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3" ht="NA" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>9</v>
+      <c r="B3" s="9" t="n">
+        <v>25</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="D3" s="9" t="n">
+        <v>20</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>57</v>
+        <v>15</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>73</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>68</v>
+        <v>15</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>33</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" ht="NA" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>69</v>
+        <v>87</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="5" ht="NA" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>73</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <v>33</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="NA" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" ht="NA" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="NA" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="NA" customHeight="1">
+      <c r="A9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" ht="NA" customHeight="1">
+      <c r="A10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" ht="NA" customHeight="1">
+      <c r="A11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" ht="NA" customHeight="1">
+      <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" ht="NA" customHeight="1">
-      <c r="A6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" ht="NA" customHeight="1">
+      <c r="A13" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" ht="NA" customHeight="1">
+      <c r="A14" s="3" t="n">
+        <v>101</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" ht="NA" customHeight="1">
+      <c r="A15" s="3" t="n">
+        <v>110</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" ht="NA" customHeight="1">
+      <c r="A16" s="3" t="n">
+        <v>111</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" ht="NA" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="C17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" ht="NA" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" ht="NA" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" ht="NA" customHeight="1">
-      <c r="A7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" ht="NA" customHeight="1">
-      <c r="A8" s="4" t="n">
+      <c r="F19" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" ht="NA" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" ht="NA" customHeight="1">
+      <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" ht="NA" customHeight="1">
-      <c r="A9" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" ht="NA" customHeight="1">
-      <c r="A10" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" ht="NA" customHeight="1">
-      <c r="A11" s="4" t="n">
-        <v>101</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" ht="NA" customHeight="1">
-      <c r="A12" s="4" t="n">
-        <v>110</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" ht="NA" customHeight="1">
-      <c r="A13" s="5" t="n">
-        <v>111</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" ht="NA" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" ht="NA" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>6</v>
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
